--- a/REGULAR/EGASAN, DELIA.xlsx
+++ b/REGULAR/EGASAN, DELIA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>7/20-22/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>2/9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -1286,27 +1295,27 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A64" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75:C78"/>
+      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1336,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1355,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1367,9 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -1367,7 +1378,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1382,7 +1393,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1395,7 +1406,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="54" t="s">
@@ -1412,7 +1423,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1456,7 +1467,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.83499999999998</v>
+        <v>177.83499999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1466,12 +1477,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>154.63999999999999</v>
+        <v>158.63999999999999</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1493,7 +1504,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1513,7 +1524,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1539,7 +1550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="21" t="s">
         <v>46</v>
@@ -1558,7 +1569,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43160</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43191</v>
       </c>
@@ -1604,7 +1615,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43221</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43252</v>
       </c>
@@ -1654,7 +1665,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="21" t="s">
         <v>46</v>
@@ -1673,7 +1684,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43282</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43313</v>
       </c>
@@ -1719,7 +1730,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43344</v>
       </c>
@@ -1739,7 +1750,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43374</v>
       </c>
@@ -1765,7 +1776,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>43405</v>
       </c>
@@ -1785,7 +1796,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>43435</v>
       </c>
@@ -1811,7 +1822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>51</v>
       </c>
@@ -1829,7 +1840,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>43466</v>
       </c>
@@ -1855,7 +1866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>43497</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43525</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>43531</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43556</v>
       </c>
@@ -1927,7 +1938,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>43586</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -1970,7 +1981,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>43617</v>
       </c>
@@ -1990,7 +2001,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43647</v>
       </c>
@@ -2010,7 +2021,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>43678</v>
       </c>
@@ -2030,7 +2041,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>43709</v>
       </c>
@@ -2050,7 +2061,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>43739</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43770</v>
       </c>
@@ -2096,7 +2107,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>43800</v>
       </c>
@@ -2120,7 +2131,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2149,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43831</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="21" t="s">
         <v>57</v>
@@ -2181,7 +2192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43862</v>
       </c>
@@ -2201,7 +2212,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>43891</v>
       </c>
@@ -2221,7 +2232,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>43922</v>
       </c>
@@ -2241,7 +2252,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>43952</v>
       </c>
@@ -2261,7 +2272,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>43983</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>44013</v>
       </c>
@@ -2307,7 +2318,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>44044</v>
       </c>
@@ -2327,7 +2338,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>44075</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>44105</v>
       </c>
@@ -2373,7 +2384,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>44136</v>
       </c>
@@ -2393,7 +2404,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>44166</v>
       </c>
@@ -2419,7 +2430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
         <v>60</v>
       </c>
@@ -2437,7 +2448,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>44197</v>
       </c>
@@ -2457,7 +2468,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>44228</v>
       </c>
@@ -2483,7 +2494,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="21" t="s">
         <v>46</v>
@@ -2502,7 +2513,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>44256</v>
       </c>
@@ -2522,7 +2533,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>44287</v>
       </c>
@@ -2542,7 +2553,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44317</v>
       </c>
@@ -2562,7 +2573,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44348</v>
       </c>
@@ -2582,7 +2593,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44378</v>
       </c>
@@ -2602,7 +2613,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>44409</v>
       </c>
@@ -2622,7 +2633,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>44440</v>
       </c>
@@ -2648,7 +2659,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>44470</v>
       </c>
@@ -2668,7 +2679,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>44501</v>
       </c>
@@ -2694,7 +2705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44531</v>
       </c>
@@ -2718,7 +2729,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2747,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44562</v>
       </c>
@@ -2756,7 +2767,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>44593</v>
       </c>
@@ -2766,7 +2777,9 @@
       <c r="C69" s="14">
         <v>1.25</v>
       </c>
-      <c r="D69" s="41"/>
+      <c r="D69" s="41">
+        <v>2</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="21"/>
       <c r="G69" s="14">
@@ -2780,7 +2793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>44621</v>
       </c>
@@ -2800,7 +2813,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>44652</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="21" t="s">
         <v>65</v>
@@ -2843,7 +2856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>44682</v>
       </c>
@@ -2863,7 +2876,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>44713</v>
       </c>
@@ -2883,7 +2896,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>44743</v>
       </c>
@@ -2907,7 +2920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>44774</v>
       </c>
@@ -2927,7 +2940,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>44805</v>
       </c>
@@ -2947,7 +2960,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>44835</v>
       </c>
@@ -2967,40 +2980,50 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="42">
+        <v>44866</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="42">
+        <v>44896</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="50" t="s">
+        <v>70</v>
+      </c>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
       <c r="D81" s="41"/>
@@ -3015,39 +3038,59 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="42">
+        <v>44927</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41"/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="41">
+        <v>1</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
+      <c r="K82" s="51">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="42">
+        <v>44958</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="41">
+        <v>2</v>
+      </c>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -3063,7 +3106,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -3079,7 +3122,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -3095,7 +3138,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -3111,7 +3154,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -3127,7 +3170,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -3143,7 +3186,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3159,7 +3202,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3175,7 +3218,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3191,7 +3234,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3207,7 +3250,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3223,7 +3266,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3239,7 +3282,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3255,7 +3298,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3271,7 +3314,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3287,7 +3330,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3303,7 +3346,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3319,7 +3362,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3335,7 +3378,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3351,7 +3394,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3367,7 +3410,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3383,7 +3426,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3399,7 +3442,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3415,7 +3458,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3431,7 +3474,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3447,7 +3490,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3463,7 +3506,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3479,7 +3522,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3495,7 +3538,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3511,7 +3554,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3527,7 +3570,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3543,7 +3586,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3559,7 +3602,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3575,7 +3618,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3591,7 +3634,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3607,7 +3650,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3623,7 +3666,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3639,7 +3682,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3655,7 +3698,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3671,7 +3714,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3687,7 +3730,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3703,7 +3746,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3719,7 +3762,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3735,7 +3778,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3751,7 +3794,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3767,7 +3810,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3783,7 +3826,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3799,7 +3842,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -3815,7 +3858,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -3831,7 +3874,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -3847,7 +3890,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -3863,7 +3906,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -3879,7 +3922,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="16"/>
       <c r="C136" s="44"/>
@@ -3943,21 +3986,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -3970,7 +4013,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -3999,7 +4042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>126.33499999999999</v>
       </c>
@@ -4023,17 +4066,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -4054,7 +4097,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -4081,7 +4124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -4107,7 +4150,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -4133,7 +4176,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -4159,7 +4202,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4211,7 +4254,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4237,7 +4280,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4263,7 +4306,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4283,7 +4326,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4303,7 +4346,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4323,7 +4366,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4344,7 +4387,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4365,7 +4408,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4386,7 +4429,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4407,7 +4450,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4428,7 +4471,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4470,7 +4513,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4491,7 +4534,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4512,7 +4555,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4533,7 +4576,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4554,7 +4597,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4575,7 +4618,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4596,7 +4639,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4617,7 +4660,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4638,7 +4681,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4659,7 +4702,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4680,7 +4723,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4701,7 +4744,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4722,7 +4765,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4743,7 +4786,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4752,7 +4795,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4761,7 +4804,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4770,7 +4813,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4779,7 +4822,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4788,7 +4831,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -4797,7 +4840,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -4806,7 +4849,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -4815,7 +4858,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -4824,7 +4867,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -4833,7 +4876,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -4842,7 +4885,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -4851,7 +4894,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -4860,7 +4903,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -4869,7 +4912,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -4878,7 +4921,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -4887,7 +4930,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -4896,7 +4939,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -4905,7 +4948,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -4914,7 +4957,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -4923,7 +4966,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -4932,7 +4975,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -4941,7 +4984,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -4950,7 +4993,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -4959,7 +5002,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -4968,7 +5011,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -4977,7 +5020,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -4986,7 +5029,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -4995,7 +5038,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -5004,7 +5047,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
